--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Inhba-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Inhba-Acvr1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.288150666666666</v>
+        <v>0.1285113333333333</v>
       </c>
       <c r="H2">
-        <v>6.864451999999999</v>
+        <v>0.385534</v>
       </c>
       <c r="I2">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="J2">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.436778333333334</v>
+        <v>10.92359866666667</v>
       </c>
       <c r="N2">
-        <v>16.310335</v>
+        <v>32.770796</v>
       </c>
       <c r="O2">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="P2">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="Q2">
-        <v>12.44016796793555</v>
+        <v>1.403806229451556</v>
       </c>
       <c r="R2">
-        <v>111.96151171142</v>
+        <v>12.634256065064</v>
       </c>
       <c r="S2">
-        <v>0.04830559232412417</v>
+        <v>0.008383247861748794</v>
       </c>
       <c r="T2">
-        <v>0.04830559232412418</v>
+        <v>0.008383247861748796</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.288150666666666</v>
+        <v>0.1285113333333333</v>
       </c>
       <c r="H3">
-        <v>6.864451999999999</v>
+        <v>0.385534</v>
       </c>
       <c r="I3">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="J3">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>62.452076</v>
       </c>
       <c r="O3">
-        <v>0.4665774732677552</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="P3">
-        <v>0.4665774732677551</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="Q3">
-        <v>47.63325311137244</v>
+        <v>2.675266518731556</v>
       </c>
       <c r="R3">
-        <v>428.6992780023519</v>
+        <v>24.077398668584</v>
       </c>
       <c r="S3">
-        <v>0.1849615304070223</v>
+        <v>0.01597615244343693</v>
       </c>
       <c r="T3">
-        <v>0.1849615304070223</v>
+        <v>0.01597615244343693</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.288150666666666</v>
+        <v>0.1285113333333333</v>
       </c>
       <c r="H4">
-        <v>6.864451999999999</v>
+        <v>0.385534</v>
       </c>
       <c r="I4">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="J4">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.23122433333334</v>
+        <v>13.06524766666667</v>
       </c>
       <c r="N4">
-        <v>39.693673</v>
+        <v>39.195743</v>
       </c>
       <c r="O4">
-        <v>0.2965501683732102</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="P4">
-        <v>0.2965501683732101</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="Q4">
-        <v>30.27503477913289</v>
+        <v>1.679032397973556</v>
       </c>
       <c r="R4">
-        <v>272.475313012196</v>
+        <v>15.111291581762</v>
       </c>
       <c r="S4">
-        <v>0.1175589824356824</v>
+        <v>0.01002684306766321</v>
       </c>
       <c r="T4">
-        <v>0.1175589824356824</v>
+        <v>0.01002684306766321</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.288150666666666</v>
+        <v>0.1285113333333333</v>
       </c>
       <c r="H5">
-        <v>6.864451999999999</v>
+        <v>0.385534</v>
       </c>
       <c r="I5">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="J5">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.131792</v>
+        <v>4.046901</v>
       </c>
       <c r="N5">
-        <v>15.395376</v>
+        <v>12.140703</v>
       </c>
       <c r="O5">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="P5">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="Q5">
-        <v>11.74231328599466</v>
+        <v>0.5200726433780001</v>
       </c>
       <c r="R5">
-        <v>105.680819573952</v>
+        <v>4.680653790402</v>
       </c>
       <c r="S5">
-        <v>0.04559579902758622</v>
+        <v>0.003105769004356109</v>
       </c>
       <c r="T5">
-        <v>0.04559579902758622</v>
+        <v>0.00310576900435611</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>7.766681999999999</v>
       </c>
       <c r="I6">
-        <v>0.4485256605643812</v>
+        <v>0.7552862722193517</v>
       </c>
       <c r="J6">
-        <v>0.4485256605643813</v>
+        <v>0.755286272219352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.436778333333334</v>
+        <v>10.92359866666667</v>
       </c>
       <c r="N6">
-        <v>16.310335</v>
+        <v>32.770796</v>
       </c>
       <c r="O6">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="P6">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="Q6">
-        <v>14.07524280649667</v>
+        <v>28.28003904654134</v>
       </c>
       <c r="R6">
-        <v>126.67718525847</v>
+        <v>254.520351418872</v>
       </c>
       <c r="S6">
-        <v>0.05465464313875505</v>
+        <v>0.1688826932757755</v>
       </c>
       <c r="T6">
-        <v>0.05465464313875507</v>
+        <v>0.1688826932757756</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>7.766681999999999</v>
       </c>
       <c r="I7">
-        <v>0.4485256605643812</v>
+        <v>0.7552862722193517</v>
       </c>
       <c r="J7">
-        <v>0.4485256605643813</v>
+        <v>0.755286272219352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>62.452076</v>
       </c>
       <c r="O7">
-        <v>0.4665774732677552</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="P7">
-        <v>0.4665774732677551</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="Q7">
         <v>53.89393494798133</v>
@@ -883,10 +883,10 @@
         <v>485.045414531832</v>
       </c>
       <c r="S7">
-        <v>0.2092719694018798</v>
+        <v>0.3218437170565958</v>
       </c>
       <c r="T7">
-        <v>0.2092719694018798</v>
+        <v>0.3218437170565959</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>7.766681999999999</v>
       </c>
       <c r="I8">
-        <v>0.4485256605643812</v>
+        <v>0.7552862722193517</v>
       </c>
       <c r="J8">
-        <v>0.4485256605643813</v>
+        <v>0.755286272219352</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.23122433333334</v>
+        <v>13.06524766666667</v>
       </c>
       <c r="N8">
-        <v>39.693673</v>
+        <v>39.195743</v>
       </c>
       <c r="O8">
-        <v>0.2965501683732102</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="P8">
-        <v>0.2965501683732101</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="Q8">
-        <v>34.25423728922067</v>
+        <v>33.82454129274733</v>
       </c>
       <c r="R8">
-        <v>308.288135602986</v>
+        <v>304.420871634726</v>
       </c>
       <c r="S8">
-        <v>0.1330103601600726</v>
+        <v>0.2019933431822994</v>
       </c>
       <c r="T8">
-        <v>0.1330103601600726</v>
+        <v>0.2019933431822995</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>7.766681999999999</v>
       </c>
       <c r="I9">
-        <v>0.4485256605643812</v>
+        <v>0.7552862722193517</v>
       </c>
       <c r="J9">
-        <v>0.4485256605643813</v>
+        <v>0.755286272219352</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.131792</v>
+        <v>4.046901</v>
       </c>
       <c r="N9">
-        <v>15.395376</v>
+        <v>12.140703</v>
       </c>
       <c r="O9">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="P9">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="Q9">
-        <v>13.285665518048</v>
+        <v>10.476997717494</v>
       </c>
       <c r="R9">
-        <v>119.570989662432</v>
+        <v>94.29297945744599</v>
       </c>
       <c r="S9">
-        <v>0.05158868786367381</v>
+        <v>0.06256651870468108</v>
       </c>
       <c r="T9">
-        <v>0.05158868786367382</v>
+        <v>0.06256651870468109</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5826116666666666</v>
+        <v>0.692415</v>
       </c>
       <c r="H10">
-        <v>1.747835</v>
+        <v>2.077245</v>
       </c>
       <c r="I10">
-        <v>0.1009374206298835</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="J10">
-        <v>0.1009374206298836</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.436778333333334</v>
+        <v>10.92359866666667</v>
       </c>
       <c r="N10">
-        <v>16.310335</v>
+        <v>32.770796</v>
       </c>
       <c r="O10">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="P10">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="Q10">
-        <v>3.167530486080556</v>
+        <v>7.563663570780001</v>
       </c>
       <c r="R10">
-        <v>28.507774374725</v>
+        <v>68.07297213702</v>
       </c>
       <c r="S10">
-        <v>0.01229962784499558</v>
+        <v>0.04516867437003838</v>
       </c>
       <c r="T10">
-        <v>0.01229962784499558</v>
+        <v>0.04516867437003838</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5826116666666666</v>
+        <v>0.692415</v>
       </c>
       <c r="H11">
-        <v>1.747835</v>
+        <v>2.077245</v>
       </c>
       <c r="I11">
-        <v>0.1009374206298835</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="J11">
-        <v>0.1009374206298836</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>62.452076</v>
       </c>
       <c r="O11">
-        <v>0.4665774732677552</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="P11">
-        <v>0.4665774732677551</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="Q11">
-        <v>12.12843602838444</v>
+        <v>14.41425140118</v>
       </c>
       <c r="R11">
-        <v>109.15592425546</v>
+        <v>129.72826261062</v>
       </c>
       <c r="S11">
-        <v>0.04709512667565565</v>
+        <v>0.08607900414066502</v>
       </c>
       <c r="T11">
-        <v>0.04709512667565565</v>
+        <v>0.08607900414066502</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5826116666666666</v>
+        <v>0.692415</v>
       </c>
       <c r="H12">
-        <v>1.747835</v>
+        <v>2.077245</v>
       </c>
       <c r="I12">
-        <v>0.1009374206298835</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="J12">
-        <v>0.1009374206298836</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.23122433333334</v>
+        <v>13.06524766666667</v>
       </c>
       <c r="N12">
-        <v>39.693673</v>
+        <v>39.195743</v>
       </c>
       <c r="O12">
-        <v>0.2965501683732102</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="P12">
-        <v>0.2965501683732101</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="Q12">
-        <v>7.70866566088389</v>
+        <v>9.046573463114999</v>
       </c>
       <c r="R12">
-        <v>69.377990947955</v>
+        <v>81.419161168035</v>
       </c>
       <c r="S12">
-        <v>0.0299330090829495</v>
+        <v>0.0540243133629928</v>
       </c>
       <c r="T12">
-        <v>0.0299330090829495</v>
+        <v>0.05402431336299281</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5826116666666666</v>
+        <v>0.692415</v>
       </c>
       <c r="H13">
-        <v>1.747835</v>
+        <v>2.077245</v>
       </c>
       <c r="I13">
-        <v>0.1009374206298835</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="J13">
-        <v>0.1009374206298836</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.131792</v>
+        <v>4.046901</v>
       </c>
       <c r="N13">
-        <v>15.395376</v>
+        <v>12.140703</v>
       </c>
       <c r="O13">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="P13">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="Q13">
-        <v>2.989841890106666</v>
+        <v>2.802134955915</v>
       </c>
       <c r="R13">
-        <v>26.90857701096</v>
+        <v>25.219214603235</v>
       </c>
       <c r="S13">
-        <v>0.01160965702628282</v>
+        <v>0.01673378517965654</v>
       </c>
       <c r="T13">
-        <v>0.01160965702628282</v>
+        <v>0.01673378517965655</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.3123523333333333</v>
+        <v>0.01787866666666667</v>
       </c>
       <c r="H14">
-        <v>0.9370569999999999</v>
+        <v>0.053636</v>
       </c>
       <c r="I14">
-        <v>0.05411501461132016</v>
+        <v>0.005215938350090445</v>
       </c>
       <c r="J14">
-        <v>0.05411501461132018</v>
+        <v>0.005215938350090446</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.436778333333334</v>
+        <v>10.92359866666667</v>
       </c>
       <c r="N14">
-        <v>16.310335</v>
+        <v>32.770796</v>
       </c>
       <c r="O14">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="P14">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="Q14">
-        <v>1.698190398232778</v>
+        <v>0.1952993793617778</v>
       </c>
       <c r="R14">
-        <v>15.283713584095</v>
+        <v>1.757694414256</v>
       </c>
       <c r="S14">
-        <v>0.006594130664249211</v>
+        <v>0.001166288530486957</v>
       </c>
       <c r="T14">
-        <v>0.006594130664249213</v>
+        <v>0.001166288530486957</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.3123523333333333</v>
+        <v>0.01787866666666667</v>
       </c>
       <c r="H15">
-        <v>0.9370569999999999</v>
+        <v>0.053636</v>
       </c>
       <c r="I15">
-        <v>0.05411501461132016</v>
+        <v>0.005215938350090445</v>
       </c>
       <c r="J15">
-        <v>0.05411501461132018</v>
+        <v>0.005215938350090446</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>62.452076</v>
       </c>
       <c r="O15">
-        <v>0.4665774732677552</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="P15">
-        <v>0.4665774732677551</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="Q15">
-        <v>6.502350553370221</v>
+        <v>0.3721866164817778</v>
       </c>
       <c r="R15">
-        <v>58.52115498033199</v>
+        <v>3.349679548336</v>
       </c>
       <c r="S15">
-        <v>0.02524884678319742</v>
+        <v>0.002222623458517753</v>
       </c>
       <c r="T15">
-        <v>0.02524884678319742</v>
+        <v>0.002222623458517753</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.3123523333333333</v>
+        <v>0.01787866666666667</v>
       </c>
       <c r="H16">
-        <v>0.9370569999999999</v>
+        <v>0.053636</v>
       </c>
       <c r="I16">
-        <v>0.05411501461132016</v>
+        <v>0.005215938350090445</v>
       </c>
       <c r="J16">
-        <v>0.05411501461132018</v>
+        <v>0.005215938350090446</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.23122433333334</v>
+        <v>13.06524766666667</v>
       </c>
       <c r="N16">
-        <v>39.693673</v>
+        <v>39.195743</v>
       </c>
       <c r="O16">
-        <v>0.2965501683732102</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="P16">
-        <v>0.2965501683732101</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="Q16">
-        <v>4.132803793373444</v>
+        <v>0.2335892079497778</v>
       </c>
       <c r="R16">
-        <v>37.195234140361</v>
+        <v>2.102302871548</v>
       </c>
       <c r="S16">
-        <v>0.01604781669450572</v>
+        <v>0.001394947669407067</v>
       </c>
       <c r="T16">
-        <v>0.01604781669450573</v>
+        <v>0.001394947669407067</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.3123523333333333</v>
+        <v>0.01787866666666667</v>
       </c>
       <c r="H17">
-        <v>0.9370569999999999</v>
+        <v>0.053636</v>
       </c>
       <c r="I17">
-        <v>0.05411501461132016</v>
+        <v>0.005215938350090445</v>
       </c>
       <c r="J17">
-        <v>0.05411501461132018</v>
+        <v>0.005215938350090446</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.131792</v>
+        <v>4.046901</v>
       </c>
       <c r="N17">
-        <v>15.395376</v>
+        <v>12.140703</v>
       </c>
       <c r="O17">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="P17">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="Q17">
-        <v>1.602927205381333</v>
+        <v>0.07235319401200001</v>
       </c>
       <c r="R17">
-        <v>14.426344848432</v>
+        <v>0.6511787461080001</v>
       </c>
       <c r="S17">
-        <v>0.006224220469367818</v>
+        <v>0.0004320786916786698</v>
       </c>
       <c r="T17">
-        <v>0.00622422046936782</v>
+        <v>0.0004320786916786699</v>
       </c>
     </row>
   </sheetData>
